--- a/CCTV dishub.xlsx
+++ b/CCTV dishub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FF8742-34B1-43F8-83EA-8BB965C1C094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7087DEE3-ECAA-40E9-A9D2-3FBE3EE3D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC600658-F051-4581-860C-F6414A6B0E25}"/>
   </bookViews>
@@ -5097,6 +5097,18 @@
     <xf numFmtId="3" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5104,15 +5116,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5125,9 +5128,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5476,7 +5476,7 @@
   <dimension ref="A1:K587"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5537,7 +5537,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="154" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
@@ -5572,7 +5572,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="151"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -5605,7 +5605,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -5634,7 +5634,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="151"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -5661,7 +5661,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -5723,7 +5723,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="150" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2">
@@ -5758,7 +5758,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="154"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -5791,7 +5791,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="154"/>
+      <c r="A12" s="151"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -5824,7 +5824,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="154" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="2">
@@ -5857,7 +5857,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
+      <c r="A14" s="156"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -5919,7 +5919,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="150" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="2">
@@ -5954,7 +5954,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="154"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="155"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -6088,7 +6088,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -6121,7 +6121,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -6216,7 +6216,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="150" t="s">
+      <c r="A25" s="154" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="2">
@@ -6251,7 +6251,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
+      <c r="A26" s="155"/>
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -6284,7 +6284,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="151"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
+      <c r="A28" s="156"/>
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="K29" s="146"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="154" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="2">
@@ -6406,7 +6406,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="151"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -6439,7 +6439,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="152"/>
+      <c r="A32" s="156"/>
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -6472,7 +6472,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="150" t="s">
+      <c r="A33" s="154" t="s">
         <v>81</v>
       </c>
       <c r="B33" s="2">
@@ -6507,7 +6507,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="151"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -6540,7 +6540,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="151"/>
+      <c r="A35" s="155"/>
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -6573,7 +6573,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
+      <c r="A36" s="155"/>
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -6606,7 +6606,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="152"/>
+      <c r="A37" s="156"/>
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -6814,7 +6814,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="150" t="s">
+      <c r="A43" s="154" t="s">
         <v>113</v>
       </c>
       <c r="B43" s="2">
@@ -6849,7 +6849,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="152"/>
+      <c r="A44" s="156"/>
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -6917,7 +6917,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="150" t="s">
         <v>121</v>
       </c>
       <c r="B46" s="2">
@@ -6952,7 +6952,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="155"/>
+      <c r="A47" s="152"/>
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -6985,7 +6985,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="150" t="s">
         <v>127</v>
       </c>
       <c r="B48" s="2">
@@ -7018,7 +7018,7 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="155"/>
+      <c r="A49" s="152"/>
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="153" t="s">
+      <c r="A50" s="150" t="s">
         <v>132</v>
       </c>
       <c r="B50" s="2">
@@ -7084,7 +7084,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="155"/>
+      <c r="A51" s="152"/>
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -7148,7 +7148,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="156" t="s">
+      <c r="A53" s="157" t="s">
         <v>140</v>
       </c>
       <c r="B53" s="2">
@@ -7181,7 +7181,7 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="156"/>
+      <c r="A54" s="157"/>
       <c r="B54" s="2">
         <v>51</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="156"/>
+      <c r="A55" s="157"/>
       <c r="B55" s="2">
         <v>52</v>
       </c>
@@ -7243,7 +7243,7 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="150" t="s">
+      <c r="A56" s="154" t="s">
         <v>147</v>
       </c>
       <c r="B56" s="2">
@@ -7278,7 +7278,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="152"/>
+      <c r="A57" s="156"/>
       <c r="B57" s="2">
         <v>54</v>
       </c>
@@ -7340,7 +7340,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="153" t="s">
+      <c r="A59" s="150" t="s">
         <v>155</v>
       </c>
       <c r="B59" s="2">
@@ -7375,7 +7375,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="154"/>
+      <c r="A60" s="151"/>
       <c r="B60" s="2">
         <v>57</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="154"/>
+      <c r="A61" s="151"/>
       <c r="B61" s="2">
         <v>58</v>
       </c>
@@ -7503,7 +7503,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="150" t="s">
+      <c r="A64" s="154" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="2">
@@ -7538,7 +7538,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="152"/>
+      <c r="A65" s="156"/>
       <c r="B65" s="2">
         <v>62</v>
       </c>
@@ -7711,7 +7711,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="150" t="s">
         <v>186</v>
       </c>
       <c r="B70" s="2">
@@ -7746,7 +7746,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="154"/>
+      <c r="A71" s="151"/>
       <c r="B71" s="2">
         <v>68</v>
       </c>
@@ -7779,7 +7779,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="155"/>
+      <c r="A72" s="152"/>
       <c r="B72" s="2">
         <v>69</v>
       </c>
@@ -7847,7 +7847,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="153" t="s">
+      <c r="A74" s="150" t="s">
         <v>197</v>
       </c>
       <c r="B74" s="2">
@@ -7882,7 +7882,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="155"/>
+      <c r="A75" s="152"/>
       <c r="B75" s="2">
         <v>72</v>
       </c>
@@ -7915,7 +7915,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="153" t="s">
+      <c r="A76" s="150" t="s">
         <v>202</v>
       </c>
       <c r="B76" s="2">
@@ -7950,7 +7950,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="155"/>
+      <c r="A77" s="152"/>
       <c r="B77" s="2">
         <v>74</v>
       </c>
@@ -7983,7 +7983,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="153" t="s">
+      <c r="A78" s="150" t="s">
         <v>208</v>
       </c>
       <c r="B78" s="2">
@@ -8018,7 +8018,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="154"/>
+      <c r="A79" s="151"/>
       <c r="B79" s="2">
         <v>76</v>
       </c>
@@ -8051,7 +8051,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="155"/>
+      <c r="A80" s="152"/>
       <c r="B80" s="2">
         <v>77</v>
       </c>
@@ -8084,7 +8084,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="153" t="s">
+      <c r="A81" s="150" t="s">
         <v>216</v>
       </c>
       <c r="B81" s="2">
@@ -8119,7 +8119,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="154"/>
+      <c r="A82" s="151"/>
       <c r="B82" s="2">
         <v>79</v>
       </c>
@@ -8152,7 +8152,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="154"/>
+      <c r="A83" s="151"/>
       <c r="B83" s="2">
         <v>80</v>
       </c>
@@ -8185,7 +8185,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="153" t="s">
+      <c r="A84" s="150" t="s">
         <v>223</v>
       </c>
       <c r="B84" s="2">
@@ -8220,7 +8220,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="154"/>
+      <c r="A85" s="151"/>
       <c r="B85" s="2">
         <v>82</v>
       </c>
@@ -8253,7 +8253,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="155"/>
+      <c r="A86" s="152"/>
       <c r="B86" s="2">
         <v>83</v>
       </c>
@@ -8321,7 +8321,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="150" t="s">
+      <c r="A88" s="154" t="s">
         <v>234</v>
       </c>
       <c r="B88" s="2">
@@ -8356,7 +8356,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="151"/>
+      <c r="A89" s="155"/>
       <c r="B89" s="2">
         <v>86</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="151"/>
+      <c r="A90" s="155"/>
       <c r="B90" s="2">
         <v>87</v>
       </c>
@@ -8422,7 +8422,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="152"/>
+      <c r="A91" s="156"/>
       <c r="B91" s="2">
         <v>88</v>
       </c>
@@ -8455,7 +8455,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="150" t="s">
+      <c r="A92" s="154" t="s">
         <v>242</v>
       </c>
       <c r="B92" s="2">
@@ -8490,7 +8490,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="151"/>
+      <c r="A93" s="155"/>
       <c r="B93" s="2">
         <v>90</v>
       </c>
@@ -8523,7 +8523,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="151"/>
+      <c r="A94" s="155"/>
       <c r="B94" s="2">
         <v>91</v>
       </c>
@@ -8556,7 +8556,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="151"/>
+      <c r="A95" s="155"/>
       <c r="B95" s="2">
         <v>92</v>
       </c>
@@ -8589,7 +8589,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="152"/>
+      <c r="A96" s="156"/>
       <c r="B96" s="2">
         <v>93</v>
       </c>
@@ -8692,7 +8692,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="153" t="s">
+      <c r="A99" s="150" t="s">
         <v>258</v>
       </c>
       <c r="B99" s="2">
@@ -8723,7 +8723,7 @@
       <c r="K99" s="9"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="154"/>
+      <c r="A100" s="151"/>
       <c r="B100" s="2">
         <v>97</v>
       </c>
@@ -8756,7 +8756,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="155"/>
+      <c r="A101" s="152"/>
       <c r="B101" s="2">
         <v>98</v>
       </c>
@@ -8789,7 +8789,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="157" t="s">
         <v>266</v>
       </c>
       <c r="B102" s="2">
@@ -8824,7 +8824,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="156"/>
+      <c r="A103" s="157"/>
       <c r="B103" s="2">
         <v>100</v>
       </c>
@@ -8857,7 +8857,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="157" t="s">
+      <c r="A104" s="158" t="s">
         <v>271</v>
       </c>
       <c r="B104" s="2">
@@ -8892,7 +8892,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="158"/>
+      <c r="A105" s="159"/>
       <c r="B105" s="2">
         <v>102</v>
       </c>
@@ -8925,7 +8925,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="158"/>
+      <c r="A106" s="159"/>
       <c r="B106" s="2">
         <v>103</v>
       </c>
@@ -8958,7 +8958,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="159"/>
+      <c r="A107" s="160"/>
       <c r="B107" s="2">
         <v>104</v>
       </c>
@@ -8991,7 +8991,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="153" t="s">
+      <c r="A108" s="150" t="s">
         <v>280</v>
       </c>
       <c r="B108" s="2">
@@ -9026,7 +9026,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="154"/>
+      <c r="A109" s="151"/>
       <c r="B109" s="2">
         <v>106</v>
       </c>
@@ -9059,7 +9059,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="155"/>
+      <c r="A110" s="152"/>
       <c r="B110" s="2">
         <v>107</v>
       </c>
@@ -9092,7 +9092,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="153" t="s">
+      <c r="A111" s="150" t="s">
         <v>287</v>
       </c>
       <c r="B111" s="2">
@@ -9127,7 +9127,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="155"/>
+      <c r="A112" s="152"/>
       <c r="B112" s="2">
         <v>109</v>
       </c>
@@ -9160,7 +9160,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="153" t="s">
+      <c r="A113" s="150" t="s">
         <v>292</v>
       </c>
       <c r="B113" s="2">
@@ -9195,7 +9195,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="154"/>
+      <c r="A114" s="151"/>
       <c r="B114" s="2">
         <v>111</v>
       </c>
@@ -9228,7 +9228,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="154"/>
+      <c r="A115" s="151"/>
       <c r="B115" s="2">
         <v>112</v>
       </c>
@@ -9261,7 +9261,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="155"/>
+      <c r="A116" s="152"/>
       <c r="B116" s="2">
         <v>113</v>
       </c>
@@ -9294,7 +9294,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="150" t="s">
+      <c r="A117" s="154" t="s">
         <v>301</v>
       </c>
       <c r="B117" s="2">
@@ -9329,7 +9329,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="151"/>
+      <c r="A118" s="155"/>
       <c r="B118" s="2">
         <v>115</v>
       </c>
@@ -9362,7 +9362,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="151"/>
+      <c r="A119" s="155"/>
       <c r="B119" s="2">
         <v>116</v>
       </c>
@@ -9395,7 +9395,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="152"/>
+      <c r="A120" s="156"/>
       <c r="B120" s="2">
         <v>117</v>
       </c>
@@ -9428,7 +9428,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="153" t="s">
+      <c r="A121" s="150" t="s">
         <v>310</v>
       </c>
       <c r="B121" s="2">
@@ -9463,7 +9463,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="154"/>
+      <c r="A122" s="151"/>
       <c r="B122" s="2">
         <v>119</v>
       </c>
@@ -9496,7 +9496,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="154"/>
+      <c r="A123" s="151"/>
       <c r="B123" s="2">
         <v>120</v>
       </c>
@@ -9529,7 +9529,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="153" t="s">
+      <c r="A124" s="150" t="s">
         <v>317</v>
       </c>
       <c r="B124" s="2">
@@ -9564,7 +9564,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="154"/>
+      <c r="A125" s="151"/>
       <c r="B125" s="2">
         <v>122</v>
       </c>
@@ -9597,7 +9597,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="155"/>
+      <c r="A126" s="152"/>
       <c r="B126" s="2">
         <v>123</v>
       </c>
@@ -9806,7 +9806,7 @@
       <c r="K132" s="55"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="150" t="s">
+      <c r="A133" s="154" t="s">
         <v>336</v>
       </c>
       <c r="B133" s="2">
@@ -9841,7 +9841,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="151"/>
+      <c r="A134" s="155"/>
       <c r="B134" s="2">
         <v>130</v>
       </c>
@@ -9874,7 +9874,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="152"/>
+      <c r="A135" s="156"/>
       <c r="B135" s="2">
         <v>131</v>
       </c>
@@ -9907,7 +9907,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="150" t="s">
+      <c r="A136" s="154" t="s">
         <v>343</v>
       </c>
       <c r="B136" s="2">
@@ -9942,7 +9942,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="151"/>
+      <c r="A137" s="155"/>
       <c r="B137" s="2">
         <v>133</v>
       </c>
@@ -9975,7 +9975,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="150" t="s">
+      <c r="A138" s="154" t="s">
         <v>348</v>
       </c>
       <c r="B138" s="2">
@@ -10010,7 +10010,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="151"/>
+      <c r="A139" s="155"/>
       <c r="B139" s="2">
         <v>135</v>
       </c>
@@ -10043,7 +10043,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="152"/>
+      <c r="A140" s="156"/>
       <c r="B140" s="2">
         <v>136</v>
       </c>
@@ -10146,7 +10146,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="151"/>
+      <c r="A143" s="155"/>
       <c r="B143" s="2">
         <v>139</v>
       </c>
@@ -10179,7 +10179,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="151"/>
+      <c r="A144" s="155"/>
       <c r="B144" s="2">
         <v>140</v>
       </c>
@@ -10208,7 +10208,7 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="152"/>
+      <c r="A145" s="156"/>
       <c r="B145" s="2">
         <v>141</v>
       </c>
@@ -10272,7 +10272,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="153" t="s">
+      <c r="A147" s="150" t="s">
         <v>370</v>
       </c>
       <c r="B147" s="2">
@@ -10307,7 +10307,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="154"/>
+      <c r="A148" s="151"/>
       <c r="B148" s="2">
         <v>144</v>
       </c>
@@ -10340,7 +10340,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="155"/>
+      <c r="A149" s="152"/>
       <c r="B149" s="2">
         <v>145</v>
       </c>
@@ -10408,7 +10408,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="150" t="s">
+      <c r="A151" s="154" t="s">
         <v>380</v>
       </c>
       <c r="B151" s="2">
@@ -10443,7 +10443,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="152"/>
+      <c r="A152" s="156"/>
       <c r="B152" s="2">
         <v>148</v>
       </c>
@@ -10472,7 +10472,7 @@
       <c r="K152" s="20"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="154"/>
+      <c r="A153" s="151"/>
       <c r="B153" s="2">
         <v>149</v>
       </c>
@@ -10505,7 +10505,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="154"/>
+      <c r="A154" s="151"/>
       <c r="B154" s="2">
         <v>150</v>
       </c>
@@ -10538,7 +10538,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="155"/>
+      <c r="A155" s="152"/>
       <c r="B155" s="2">
         <v>151</v>
       </c>
@@ -10571,7 +10571,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="153" t="s">
+      <c r="A156" s="150" t="s">
         <v>391</v>
       </c>
       <c r="B156" s="2">
@@ -10606,7 +10606,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="154"/>
+      <c r="A157" s="151"/>
       <c r="B157" s="2">
         <v>153</v>
       </c>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="154"/>
+      <c r="A158" s="151"/>
       <c r="B158" s="2">
         <v>154</v>
       </c>
@@ -10672,7 +10672,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="155"/>
+      <c r="A159" s="152"/>
       <c r="B159" s="2">
         <v>155</v>
       </c>
@@ -10705,7 +10705,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="153" t="s">
+      <c r="A160" s="150" t="s">
         <v>399</v>
       </c>
       <c r="B160" s="2">
@@ -10740,7 +10740,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="154"/>
+      <c r="A161" s="151"/>
       <c r="B161" s="2">
         <v>157</v>
       </c>
@@ -10773,7 +10773,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="155"/>
+      <c r="A162" s="152"/>
       <c r="B162" s="2">
         <v>158</v>
       </c>
@@ -10806,7 +10806,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="153" t="s">
+      <c r="A163" s="150" t="s">
         <v>407</v>
       </c>
       <c r="B163" s="2">
@@ -10841,7 +10841,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="154"/>
+      <c r="A164" s="151"/>
       <c r="B164" s="2">
         <v>160</v>
       </c>
@@ -10874,7 +10874,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="155"/>
+      <c r="A165" s="152"/>
       <c r="B165" s="2">
         <v>161</v>
       </c>
@@ -10907,7 +10907,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="153" t="s">
+      <c r="A166" s="150" t="s">
         <v>414</v>
       </c>
       <c r="B166" s="2">
@@ -10938,7 +10938,7 @@
       <c r="K166" s="9"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="154"/>
+      <c r="A167" s="151"/>
       <c r="B167" s="2">
         <v>163</v>
       </c>
@@ -10967,7 +10967,7 @@
       <c r="K167" s="9"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="154"/>
+      <c r="A168" s="151"/>
       <c r="B168" s="2">
         <v>164</v>
       </c>
@@ -10996,7 +10996,7 @@
       <c r="K168" s="9"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="155"/>
+      <c r="A169" s="152"/>
       <c r="B169" s="2">
         <v>165</v>
       </c>
@@ -11126,7 +11126,7 @@
       <c r="K172" s="10"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="150" t="s">
+      <c r="A173" s="154" t="s">
         <v>432</v>
       </c>
       <c r="B173" s="2">
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="151"/>
+      <c r="A174" s="155"/>
       <c r="B174" s="2">
         <v>170</v>
       </c>
@@ -11194,7 +11194,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="151"/>
+      <c r="A175" s="155"/>
       <c r="B175" s="2">
         <v>171</v>
       </c>
@@ -11227,7 +11227,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="152"/>
+      <c r="A176" s="156"/>
       <c r="B176" s="2">
         <v>172</v>
       </c>
@@ -11260,7 +11260,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="150" t="s">
+      <c r="A177" s="154" t="s">
         <v>440</v>
       </c>
       <c r="B177" s="2">
@@ -11295,7 +11295,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="151"/>
+      <c r="A178" s="155"/>
       <c r="B178" s="2">
         <v>174</v>
       </c>
@@ -11328,7 +11328,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="151"/>
+      <c r="A179" s="155"/>
       <c r="B179" s="2">
         <v>175</v>
       </c>
@@ -11361,7 +11361,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="152"/>
+      <c r="A180" s="156"/>
       <c r="B180" s="2">
         <v>176</v>
       </c>
@@ -11392,7 +11392,7 @@
       <c r="K180" s="20"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="150" t="s">
+      <c r="A181" s="154" t="s">
         <v>449</v>
       </c>
       <c r="B181" s="2">
@@ -11427,7 +11427,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="151"/>
+      <c r="A182" s="155"/>
       <c r="B182" s="2">
         <v>178</v>
       </c>
@@ -11460,7 +11460,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="151"/>
+      <c r="A183" s="155"/>
       <c r="B183" s="2">
         <v>179</v>
       </c>
@@ -11493,7 +11493,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="151"/>
+      <c r="A184" s="155"/>
       <c r="B184" s="2">
         <v>180</v>
       </c>
@@ -11526,7 +11526,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="150" t="s">
+      <c r="A185" s="154" t="s">
         <v>458</v>
       </c>
       <c r="B185" s="2">
@@ -11561,7 +11561,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="151"/>
+      <c r="A186" s="155"/>
       <c r="B186" s="2">
         <v>182</v>
       </c>
@@ -11594,7 +11594,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="152"/>
+      <c r="A187" s="156"/>
       <c r="B187" s="2">
         <v>183</v>
       </c>
@@ -11627,7 +11627,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="153" t="s">
+      <c r="A188" s="150" t="s">
         <v>465</v>
       </c>
       <c r="B188" s="2">
@@ -11662,7 +11662,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A189" s="154"/>
+      <c r="A189" s="151"/>
       <c r="B189" s="2">
         <v>185</v>
       </c>
@@ -11695,7 +11695,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="155"/>
+      <c r="A190" s="152"/>
       <c r="B190" s="2">
         <v>186</v>
       </c>
@@ -11724,7 +11724,7 @@
       <c r="K190" s="9"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="153" t="s">
+      <c r="A191" s="150" t="s">
         <v>472</v>
       </c>
       <c r="B191" s="2">
@@ -11759,7 +11759,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="154"/>
+      <c r="A192" s="151"/>
       <c r="B192" s="2">
         <v>188</v>
       </c>
@@ -11792,7 +11792,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193" s="153" t="s">
+      <c r="A193" s="150" t="s">
         <v>477</v>
       </c>
       <c r="B193" s="2">
@@ -11827,7 +11827,7 @@
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194" s="154"/>
+      <c r="A194" s="151"/>
       <c r="B194" s="2">
         <v>190</v>
       </c>
@@ -11860,7 +11860,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="154"/>
+      <c r="A195" s="151"/>
       <c r="B195" s="2">
         <v>191</v>
       </c>
@@ -11893,7 +11893,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="155"/>
+      <c r="A196" s="152"/>
       <c r="B196" s="2">
         <v>192</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="150" t="s">
+      <c r="A197" s="154" t="s">
         <v>486</v>
       </c>
       <c r="B197" s="2">
@@ -11961,7 +11961,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198" s="151"/>
+      <c r="A198" s="155"/>
       <c r="B198" s="2">
         <v>194</v>
       </c>
@@ -11994,7 +11994,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="152"/>
+      <c r="A199" s="156"/>
       <c r="B199" s="2">
         <v>195</v>
       </c>
@@ -12027,7 +12027,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="154"/>
+      <c r="A200" s="151"/>
       <c r="B200" s="2">
         <v>196</v>
       </c>
@@ -12060,7 +12060,7 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="154"/>
+      <c r="A201" s="151"/>
       <c r="B201" s="2">
         <v>197</v>
       </c>
@@ -12093,7 +12093,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="155"/>
+      <c r="A202" s="152"/>
       <c r="B202" s="2">
         <v>198</v>
       </c>
@@ -12126,7 +12126,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A203" s="154"/>
+      <c r="A203" s="151"/>
       <c r="B203" s="2">
         <v>199</v>
       </c>
@@ -12159,7 +12159,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A204" s="155"/>
+      <c r="A204" s="152"/>
       <c r="B204" s="2">
         <v>200</v>
       </c>
@@ -12400,7 +12400,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211" s="153" t="s">
+      <c r="A211" s="150" t="s">
         <v>520</v>
       </c>
       <c r="B211" s="2">
@@ -12435,7 +12435,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212" s="154"/>
+      <c r="A212" s="151"/>
       <c r="B212" s="2">
         <v>208</v>
       </c>
@@ -12468,7 +12468,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" s="154"/>
+      <c r="A213" s="151"/>
       <c r="B213" s="2">
         <v>209</v>
       </c>
@@ -12501,7 +12501,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" s="155"/>
+      <c r="A214" s="152"/>
       <c r="B214" s="2">
         <v>210</v>
       </c>
@@ -12534,7 +12534,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215" s="154"/>
+      <c r="A215" s="151"/>
       <c r="B215" s="2">
         <v>211</v>
       </c>
@@ -12567,7 +12567,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216" s="154"/>
+      <c r="A216" s="151"/>
       <c r="B216" s="2">
         <v>212</v>
       </c>
@@ -12600,7 +12600,7 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" s="155"/>
+      <c r="A217" s="152"/>
       <c r="B217" s="2">
         <v>213</v>
       </c>
@@ -12633,7 +12633,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="153" t="s">
+      <c r="A218" s="150" t="s">
         <v>534</v>
       </c>
       <c r="B218" s="2">
@@ -12668,7 +12668,7 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="154"/>
+      <c r="A219" s="151"/>
       <c r="B219" s="2">
         <v>215</v>
       </c>
@@ -12701,7 +12701,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" s="155"/>
+      <c r="A220" s="152"/>
       <c r="B220" s="2">
         <v>216</v>
       </c>
@@ -12734,7 +12734,7 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A221" s="150" t="s">
+      <c r="A221" s="154" t="s">
         <v>541</v>
       </c>
       <c r="B221" s="2">
@@ -12769,7 +12769,7 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A222" s="152"/>
+      <c r="A222" s="156"/>
       <c r="B222" s="2">
         <v>218</v>
       </c>
@@ -12907,7 +12907,7 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A226" s="160" t="s">
+      <c r="A226" s="153" t="s">
         <v>555</v>
       </c>
       <c r="B226" s="2">
@@ -12942,7 +12942,7 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227" s="160"/>
+      <c r="A227" s="153"/>
       <c r="B227" s="2">
         <v>223</v>
       </c>
@@ -12975,7 +12975,7 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228" s="156" t="s">
+      <c r="A228" s="157" t="s">
         <v>560</v>
       </c>
       <c r="B228" s="2">
@@ -13010,7 +13010,7 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A229" s="156"/>
+      <c r="A229" s="157"/>
       <c r="B229" s="2">
         <v>225</v>
       </c>
@@ -13113,7 +13113,7 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A232" s="153" t="s">
+      <c r="A232" s="150" t="s">
         <v>571</v>
       </c>
       <c r="B232" s="2">
@@ -13148,7 +13148,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A233" s="154"/>
+      <c r="A233" s="151"/>
       <c r="B233" s="2">
         <v>229</v>
       </c>
@@ -13181,7 +13181,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A234" s="154"/>
+      <c r="A234" s="151"/>
       <c r="B234" s="2">
         <v>230</v>
       </c>
@@ -13214,7 +13214,7 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A235" s="155"/>
+      <c r="A235" s="152"/>
       <c r="B235" s="2">
         <v>231</v>
       </c>
@@ -13387,7 +13387,7 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A240" s="153" t="s">
+      <c r="A240" s="150" t="s">
         <v>592</v>
       </c>
       <c r="B240" s="2">
@@ -13418,7 +13418,7 @@
       <c r="K240" s="9"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="154"/>
+      <c r="A241" s="151"/>
       <c r="B241" s="2">
         <v>237</v>
       </c>
@@ -13447,7 +13447,7 @@
       <c r="K241" s="9"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="154"/>
+      <c r="A242" s="151"/>
       <c r="B242" s="2">
         <v>238</v>
       </c>
@@ -13476,7 +13476,7 @@
       <c r="K242" s="9"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A243" s="154"/>
+      <c r="A243" s="151"/>
       <c r="B243" s="2">
         <v>239</v>
       </c>
@@ -13540,7 +13540,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245" s="153" t="s">
+      <c r="A245" s="150" t="s">
         <v>603</v>
       </c>
       <c r="B245" s="2">
@@ -13575,7 +13575,7 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A246" s="155"/>
+      <c r="A246" s="152"/>
       <c r="B246" s="2">
         <v>242</v>
       </c>
@@ -14065,7 +14065,7 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A262" s="153" t="s">
+      <c r="A262" s="150" t="s">
         <v>624</v>
       </c>
       <c r="B262" s="2">
@@ -14100,7 +14100,7 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A263" s="155"/>
+      <c r="A263" s="152"/>
       <c r="B263" s="2">
         <v>258</v>
       </c>
@@ -14273,7 +14273,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A268" s="151"/>
+      <c r="A268" s="155"/>
       <c r="B268" s="2">
         <v>263</v>
       </c>
@@ -14306,7 +14306,7 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269" s="151"/>
+      <c r="A269" s="155"/>
       <c r="B269" s="2">
         <v>264</v>
       </c>
@@ -14339,7 +14339,7 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A270" s="151"/>
+      <c r="A270" s="155"/>
       <c r="B270" s="2">
         <v>265</v>
       </c>
@@ -14372,7 +14372,7 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271" s="152"/>
+      <c r="A271" s="156"/>
       <c r="B271" s="2">
         <v>266</v>
       </c>
@@ -14405,7 +14405,7 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272" s="153" t="s">
+      <c r="A272" s="150" t="s">
         <v>648</v>
       </c>
       <c r="B272" s="2">
@@ -14440,7 +14440,7 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A273" s="155"/>
+      <c r="A273" s="152"/>
       <c r="B273" s="2">
         <v>268</v>
       </c>
@@ -14473,7 +14473,7 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" s="153" t="s">
+      <c r="A274" s="150" t="s">
         <v>653</v>
       </c>
       <c r="B274" s="2">
@@ -14508,7 +14508,7 @@
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" s="155"/>
+      <c r="A275" s="152"/>
       <c r="B275" s="2">
         <v>270</v>
       </c>
@@ -14576,7 +14576,7 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277" s="150" t="s">
+      <c r="A277" s="154" t="s">
         <v>661</v>
       </c>
       <c r="B277" s="2">
@@ -14611,7 +14611,7 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278" s="151"/>
+      <c r="A278" s="155"/>
       <c r="B278" s="2">
         <v>273</v>
       </c>
@@ -14644,7 +14644,7 @@
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279" s="152"/>
+      <c r="A279" s="156"/>
       <c r="B279" s="2">
         <v>274</v>
       </c>
@@ -14877,7 +14877,7 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286" s="150" t="s">
+      <c r="A286" s="154" t="s">
         <v>682</v>
       </c>
       <c r="B286" s="2">
@@ -14912,7 +14912,7 @@
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A287" s="151"/>
+      <c r="A287" s="155"/>
       <c r="B287" s="2">
         <v>282</v>
       </c>
@@ -14945,7 +14945,7 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="151"/>
+      <c r="A288" s="155"/>
       <c r="B288" s="2">
         <v>283</v>
       </c>
@@ -14978,7 +14978,7 @@
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A289" s="152"/>
+      <c r="A289" s="156"/>
       <c r="B289" s="2">
         <v>284</v>
       </c>
@@ -15042,7 +15042,7 @@
       <c r="K290" s="20"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A291" s="150" t="s">
+      <c r="A291" s="154" t="s">
         <v>695</v>
       </c>
       <c r="B291" s="2">
@@ -15077,7 +15077,7 @@
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" s="151"/>
+      <c r="A292" s="155"/>
       <c r="B292" s="2">
         <v>287</v>
       </c>
@@ -15110,7 +15110,7 @@
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" s="151"/>
+      <c r="A293" s="155"/>
       <c r="B293" s="2">
         <v>288</v>
       </c>
@@ -15143,7 +15143,7 @@
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="152"/>
+      <c r="A294" s="156"/>
       <c r="B294" s="2">
         <v>289</v>
       </c>
@@ -15279,7 +15279,7 @@
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" s="150" t="s">
+      <c r="A298" s="154" t="s">
         <v>711</v>
       </c>
       <c r="B298" s="2">
@@ -15314,7 +15314,7 @@
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" s="152"/>
+      <c r="A299" s="156"/>
       <c r="B299" s="2">
         <v>294</v>
       </c>
@@ -15382,7 +15382,7 @@
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" s="150" t="s">
+      <c r="A301" s="154" t="s">
         <v>719</v>
       </c>
       <c r="B301" s="2">
@@ -15417,7 +15417,7 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="152"/>
+      <c r="A302" s="156"/>
       <c r="B302" s="2">
         <v>297</v>
       </c>
@@ -15450,7 +15450,7 @@
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="150" t="s">
+      <c r="A303" s="154" t="s">
         <v>724</v>
       </c>
       <c r="B303" s="2">
@@ -15485,7 +15485,7 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" s="152"/>
+      <c r="A304" s="156"/>
       <c r="B304" s="2">
         <v>299</v>
       </c>
@@ -15518,7 +15518,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305" s="150" t="s">
+      <c r="A305" s="154" t="s">
         <v>729</v>
       </c>
       <c r="B305" s="2">
@@ -15553,7 +15553,7 @@
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" s="152"/>
+      <c r="A306" s="156"/>
       <c r="B306" s="2">
         <v>301</v>
       </c>
@@ -15586,7 +15586,7 @@
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="153" t="s">
+      <c r="A307" s="150" t="s">
         <v>734</v>
       </c>
       <c r="B307" s="2">
@@ -15621,7 +15621,7 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" s="154"/>
+      <c r="A308" s="151"/>
       <c r="B308" s="2">
         <v>303</v>
       </c>
@@ -15654,7 +15654,7 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="155"/>
+      <c r="A309" s="152"/>
       <c r="B309" s="2">
         <v>304</v>
       </c>
@@ -15751,7 +15751,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="153" t="s">
+      <c r="A312" s="150" t="s">
         <v>746</v>
       </c>
       <c r="B312" s="2">
@@ -15786,7 +15786,7 @@
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" s="154"/>
+      <c r="A313" s="151"/>
       <c r="B313" s="2">
         <v>308</v>
       </c>
@@ -15819,7 +15819,7 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="154"/>
+      <c r="A314" s="151"/>
       <c r="B314" s="2">
         <v>309</v>
       </c>
@@ -15852,7 +15852,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="154"/>
+      <c r="A315" s="151"/>
       <c r="B315" s="2">
         <v>310</v>
       </c>
@@ -15885,7 +15885,7 @@
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="154"/>
+      <c r="A316" s="151"/>
       <c r="B316" s="2">
         <v>311</v>
       </c>
@@ -15918,7 +15918,7 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="154"/>
+      <c r="A317" s="151"/>
       <c r="B317" s="2">
         <v>312</v>
       </c>
@@ -15951,7 +15951,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318" s="155"/>
+      <c r="A318" s="152"/>
       <c r="B318" s="2">
         <v>313</v>
       </c>
@@ -15980,7 +15980,7 @@
       <c r="K318" s="9"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319" s="150" t="s">
+      <c r="A319" s="154" t="s">
         <v>761</v>
       </c>
       <c r="B319" s="2">
@@ -16015,7 +16015,7 @@
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320" s="151"/>
+      <c r="A320" s="155"/>
       <c r="B320" s="2">
         <v>315</v>
       </c>
@@ -16048,7 +16048,7 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321" s="152"/>
+      <c r="A321" s="156"/>
       <c r="B321" s="2">
         <v>316</v>
       </c>
@@ -16077,7 +16077,7 @@
       <c r="K321" s="24"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322" s="150" t="s">
+      <c r="A322" s="154" t="s">
         <v>768</v>
       </c>
       <c r="B322" s="2">
@@ -16112,7 +16112,7 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="152"/>
+      <c r="A323" s="156"/>
       <c r="B323" s="2">
         <v>318</v>
       </c>
@@ -16285,7 +16285,7 @@
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="153" t="s">
+      <c r="A328" s="150" t="s">
         <v>785</v>
       </c>
       <c r="B328" s="2">
@@ -16320,7 +16320,7 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="155"/>
+      <c r="A329" s="152"/>
       <c r="B329" s="2">
         <v>324</v>
       </c>
@@ -16353,7 +16353,7 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="156" t="s">
+      <c r="A330" s="157" t="s">
         <v>790</v>
       </c>
       <c r="B330" s="2">
@@ -16388,7 +16388,7 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="156"/>
+      <c r="A331" s="157"/>
       <c r="B331" s="2">
         <v>326</v>
       </c>
@@ -16456,7 +16456,7 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="153" t="s">
+      <c r="A333" s="150" t="s">
         <v>798</v>
       </c>
       <c r="B333" s="2">
@@ -16491,7 +16491,7 @@
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="155"/>
+      <c r="A334" s="152"/>
       <c r="B334" s="2">
         <v>329</v>
       </c>
@@ -16559,7 +16559,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="150" t="s">
+      <c r="A336" s="154" t="s">
         <v>806</v>
       </c>
       <c r="B336" s="2">
@@ -16594,7 +16594,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="151"/>
+      <c r="A337" s="155"/>
       <c r="B337" s="2">
         <v>332</v>
       </c>
@@ -16627,7 +16627,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="151"/>
+      <c r="A338" s="155"/>
       <c r="B338" s="2">
         <v>333</v>
       </c>
@@ -16660,7 +16660,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="152"/>
+      <c r="A339" s="156"/>
       <c r="B339" s="2">
         <v>334</v>
       </c>
@@ -16693,7 +16693,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="150" t="s">
+      <c r="A340" s="154" t="s">
         <v>815</v>
       </c>
       <c r="B340" s="2">
@@ -16728,7 +16728,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="151"/>
+      <c r="A341" s="155"/>
       <c r="B341" s="2">
         <v>336</v>
       </c>
@@ -16761,7 +16761,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="152"/>
+      <c r="A342" s="156"/>
       <c r="B342" s="2">
         <v>337</v>
       </c>
@@ -16794,7 +16794,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="153" t="s">
+      <c r="A343" s="150" t="s">
         <v>822</v>
       </c>
       <c r="B343" s="2">
@@ -16829,7 +16829,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="155"/>
+      <c r="A344" s="152"/>
       <c r="B344" s="2">
         <v>339</v>
       </c>
@@ -16862,7 +16862,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="151"/>
+      <c r="A345" s="155"/>
       <c r="B345" s="2">
         <v>340</v>
       </c>
@@ -16895,7 +16895,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="151"/>
+      <c r="A346" s="155"/>
       <c r="B346" s="2">
         <v>341</v>
       </c>
@@ -16928,7 +16928,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="152"/>
+      <c r="A347" s="156"/>
       <c r="B347" s="2">
         <v>342</v>
       </c>
@@ -16996,7 +16996,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="156" t="s">
+      <c r="A349" s="157" t="s">
         <v>838</v>
       </c>
       <c r="B349" s="2">
@@ -17031,7 +17031,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="156"/>
+      <c r="A350" s="157"/>
       <c r="B350" s="2">
         <v>345</v>
       </c>
@@ -17064,7 +17064,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="153" t="s">
+      <c r="A351" s="150" t="s">
         <v>843</v>
       </c>
       <c r="B351" s="2">
@@ -17099,7 +17099,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="154"/>
+      <c r="A352" s="151"/>
       <c r="B352" s="2">
         <v>347</v>
       </c>
@@ -17167,7 +17167,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="160" t="s">
+      <c r="A354" s="153" t="s">
         <v>851</v>
       </c>
       <c r="B354" s="2">
@@ -17202,7 +17202,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="160"/>
+      <c r="A355" s="153"/>
       <c r="B355" s="2">
         <v>350</v>
       </c>
@@ -17235,7 +17235,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="160"/>
+      <c r="A356" s="153"/>
       <c r="B356" s="2">
         <v>351</v>
       </c>
@@ -17338,7 +17338,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="157" t="s">
+      <c r="A359" s="158" t="s">
         <v>864</v>
       </c>
       <c r="B359" s="2">
@@ -17373,7 +17373,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="158"/>
+      <c r="A360" s="159"/>
       <c r="B360" s="2">
         <v>355</v>
       </c>
@@ -17406,7 +17406,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="159"/>
+      <c r="A361" s="160"/>
       <c r="B361" s="2">
         <v>356</v>
       </c>
@@ -17435,7 +17435,7 @@
       <c r="K361" s="9"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="150" t="s">
+      <c r="A362" s="154" t="s">
         <v>871</v>
       </c>
       <c r="B362" s="2">
@@ -17470,7 +17470,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="152"/>
+      <c r="A363" s="156"/>
       <c r="B363" s="2">
         <v>358</v>
       </c>
@@ -17611,7 +17611,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="153" t="s">
+      <c r="A368" s="150" t="s">
         <v>879</v>
       </c>
       <c r="B368" s="2">
@@ -17646,7 +17646,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="154"/>
+      <c r="A369" s="151"/>
       <c r="B369" s="2">
         <v>363</v>
       </c>
@@ -17679,7 +17679,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370" s="154"/>
+      <c r="A370" s="151"/>
       <c r="B370" s="2">
         <v>364</v>
       </c>
@@ -17712,7 +17712,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A371" s="150" t="s">
+      <c r="A371" s="154" t="s">
         <v>886</v>
       </c>
       <c r="B371" s="2">
@@ -17747,7 +17747,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372" s="151"/>
+      <c r="A372" s="155"/>
       <c r="B372" s="2">
         <v>366</v>
       </c>
@@ -17780,7 +17780,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A373" s="151"/>
+      <c r="A373" s="155"/>
       <c r="B373" s="2">
         <v>367</v>
       </c>
@@ -17811,7 +17811,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A374" s="150" t="s">
+      <c r="A374" s="154" t="s">
         <v>893</v>
       </c>
       <c r="B374" s="2">
@@ -17842,7 +17842,7 @@
       <c r="K374" s="24"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A375" s="152"/>
+      <c r="A375" s="156"/>
       <c r="B375" s="2">
         <v>369</v>
       </c>
@@ -18046,7 +18046,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A381" s="150" t="s">
+      <c r="A381" s="154" t="s">
         <v>913</v>
       </c>
       <c r="B381" s="2">
@@ -18081,7 +18081,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A382" s="151"/>
+      <c r="A382" s="155"/>
       <c r="B382" s="2">
         <v>376</v>
       </c>
@@ -18114,7 +18114,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A383" s="151"/>
+      <c r="A383" s="155"/>
       <c r="B383" s="2">
         <v>377</v>
       </c>
@@ -18147,7 +18147,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A384" s="152"/>
+      <c r="A384" s="156"/>
       <c r="B384" s="2">
         <v>378</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A389" s="153" t="s">
+      <c r="A389" s="150" t="s">
         <v>934</v>
       </c>
       <c r="B389" s="2">
@@ -18351,7 +18351,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A390" s="154"/>
+      <c r="A390" s="151"/>
       <c r="B390" s="2">
         <v>384</v>
       </c>
@@ -18384,7 +18384,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A391" s="155"/>
+      <c r="A391" s="152"/>
       <c r="B391" s="2">
         <v>385</v>
       </c>
@@ -18417,7 +18417,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392" s="153" t="s">
+      <c r="A392" s="150" t="s">
         <v>941</v>
       </c>
       <c r="B392" s="2">
@@ -18452,7 +18452,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A393" s="154"/>
+      <c r="A393" s="151"/>
       <c r="B393" s="2">
         <v>387</v>
       </c>
@@ -18481,7 +18481,7 @@
       <c r="K393" s="9"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A394" s="155"/>
+      <c r="A394" s="152"/>
       <c r="B394" s="2">
         <v>388</v>
       </c>
@@ -18545,7 +18545,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A396" s="154" t="s">
+      <c r="A396" s="151" t="s">
         <v>950</v>
       </c>
       <c r="B396" s="2">
@@ -18580,7 +18580,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A397" s="155"/>
+      <c r="A397" s="152"/>
       <c r="B397" s="2">
         <v>391</v>
       </c>
@@ -18613,7 +18613,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A398" s="153" t="s">
+      <c r="A398" s="150" t="s">
         <v>955</v>
       </c>
       <c r="B398" s="2">
@@ -18648,7 +18648,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A399" s="154"/>
+      <c r="A399" s="151"/>
       <c r="B399" s="2">
         <v>393</v>
       </c>
@@ -18681,7 +18681,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A400" s="154"/>
+      <c r="A400" s="151"/>
       <c r="B400" s="2">
         <v>394</v>
       </c>
@@ -18714,7 +18714,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A401" s="150" t="s">
+      <c r="A401" s="154" t="s">
         <v>962</v>
       </c>
       <c r="B401" s="2">
@@ -18749,7 +18749,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A402" s="151"/>
+      <c r="A402" s="155"/>
       <c r="B402" s="2">
         <v>396</v>
       </c>
@@ -18782,7 +18782,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A403" s="152"/>
+      <c r="A403" s="156"/>
       <c r="B403" s="2">
         <v>397</v>
       </c>
@@ -18815,7 +18815,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A404" s="150" t="s">
+      <c r="A404" s="154" t="s">
         <v>969</v>
       </c>
       <c r="B404" s="2">
@@ -18850,7 +18850,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A405" s="151"/>
+      <c r="A405" s="155"/>
       <c r="B405" s="2">
         <v>399</v>
       </c>
@@ -18883,7 +18883,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A406" s="151"/>
+      <c r="A406" s="155"/>
       <c r="B406" s="2">
         <v>400</v>
       </c>
@@ -18916,7 +18916,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A407" s="152"/>
+      <c r="A407" s="156"/>
       <c r="B407" s="2">
         <v>401</v>
       </c>
@@ -18945,7 +18945,7 @@
       <c r="K407" s="20"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A408" s="150" t="s">
+      <c r="A408" s="154" t="s">
         <v>978</v>
       </c>
       <c r="B408" s="2">
@@ -18980,7 +18980,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A409" s="151"/>
+      <c r="A409" s="155"/>
       <c r="B409" s="2">
         <v>403</v>
       </c>
@@ -19009,7 +19009,7 @@
       <c r="K409" s="20"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A410" s="152"/>
+      <c r="A410" s="156"/>
       <c r="B410" s="2">
         <v>404</v>
       </c>
@@ -19038,7 +19038,7 @@
       <c r="K410" s="20"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A411" s="150" t="s">
+      <c r="A411" s="154" t="s">
         <v>985</v>
       </c>
       <c r="B411" s="2">
@@ -19073,7 +19073,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A412" s="152"/>
+      <c r="A412" s="156"/>
       <c r="B412" s="2">
         <v>406</v>
       </c>
@@ -19106,7 +19106,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A413" s="153" t="s">
+      <c r="A413" s="150" t="s">
         <v>989</v>
       </c>
       <c r="B413" s="2">
@@ -19141,7 +19141,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A414" s="154"/>
+      <c r="A414" s="151"/>
       <c r="B414" s="2">
         <v>408</v>
       </c>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A415" s="154"/>
+      <c r="A415" s="151"/>
       <c r="B415" s="2">
         <v>409</v>
       </c>
@@ -19207,7 +19207,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A416" s="154"/>
+      <c r="A416" s="151"/>
       <c r="B416" s="2">
         <v>410</v>
       </c>
@@ -19337,7 +19337,7 @@
       <c r="K419" s="9"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A420" s="153" t="s">
+      <c r="A420" s="150" t="s">
         <v>1005</v>
       </c>
       <c r="B420" s="2">
@@ -19372,7 +19372,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A421" s="154"/>
+      <c r="A421" s="151"/>
       <c r="B421" s="2">
         <v>415</v>
       </c>
@@ -19405,7 +19405,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A422" s="154"/>
+      <c r="A422" s="151"/>
       <c r="B422" s="2">
         <v>416</v>
       </c>
@@ -19438,7 +19438,7 @@
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A423" s="156" t="s">
+      <c r="A423" s="157" t="s">
         <v>1012</v>
       </c>
       <c r="B423" s="2">
@@ -19473,7 +19473,7 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A424" s="156"/>
+      <c r="A424" s="157"/>
       <c r="B424" s="2">
         <v>418</v>
       </c>
@@ -19506,7 +19506,7 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A425" s="153" t="s">
+      <c r="A425" s="150" t="s">
         <v>1017</v>
       </c>
       <c r="B425" s="2">
@@ -19537,7 +19537,7 @@
       <c r="K425" s="9"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A426" s="155"/>
+      <c r="A426" s="152"/>
       <c r="B426" s="2">
         <v>420</v>
       </c>
@@ -19566,7 +19566,7 @@
       <c r="K426" s="9"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A427" s="153" t="s">
+      <c r="A427" s="150" t="s">
         <v>1022</v>
       </c>
       <c r="B427" s="2">
@@ -19601,7 +19601,7 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A428" s="154"/>
+      <c r="A428" s="151"/>
       <c r="B428" s="2">
         <v>422</v>
       </c>
@@ -19628,7 +19628,7 @@
       <c r="K428" s="10"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A429" s="155"/>
+      <c r="A429" s="152"/>
       <c r="B429" s="2">
         <v>423</v>
       </c>
@@ -19655,7 +19655,7 @@
       <c r="K429" s="10"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A430" s="153" t="s">
+      <c r="A430" s="150" t="s">
         <v>1027</v>
       </c>
       <c r="B430" s="2">
@@ -19690,7 +19690,7 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A431" s="155"/>
+      <c r="A431" s="152"/>
       <c r="B431" s="2">
         <v>425</v>
       </c>
@@ -19717,7 +19717,7 @@
       <c r="K431" s="10"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A432" s="153" t="s">
+      <c r="A432" s="150" t="s">
         <v>1030</v>
       </c>
       <c r="B432" s="2">
@@ -19752,7 +19752,7 @@
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A433" s="154"/>
+      <c r="A433" s="151"/>
       <c r="B433" s="2">
         <v>427</v>
       </c>
@@ -19785,7 +19785,7 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A434" s="155"/>
+      <c r="A434" s="152"/>
       <c r="B434" s="2">
         <v>428</v>
       </c>
@@ -19818,7 +19818,7 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A435" s="150" t="s">
+      <c r="A435" s="154" t="s">
         <v>1037</v>
       </c>
       <c r="B435" s="2">
@@ -19853,7 +19853,7 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A436" s="151"/>
+      <c r="A436" s="155"/>
       <c r="B436" s="2">
         <v>430</v>
       </c>
@@ -19886,7 +19886,7 @@
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A437" s="152"/>
+      <c r="A437" s="156"/>
       <c r="B437" s="2">
         <v>431</v>
       </c>
@@ -19919,7 +19919,7 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A438" s="153" t="s">
+      <c r="A438" s="150" t="s">
         <v>1041</v>
       </c>
       <c r="B438" s="2">
@@ -19954,7 +19954,7 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A439" s="154"/>
+      <c r="A439" s="151"/>
       <c r="B439" s="2">
         <v>433</v>
       </c>
@@ -19987,7 +19987,7 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A440" s="155"/>
+      <c r="A440" s="152"/>
       <c r="B440" s="2">
         <v>434</v>
       </c>
@@ -20051,7 +20051,7 @@
       <c r="K441" s="9"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A442" s="154"/>
+      <c r="A442" s="151"/>
       <c r="B442" s="2">
         <v>436</v>
       </c>
@@ -20084,7 +20084,7 @@
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A443" s="155"/>
+      <c r="A443" s="152"/>
       <c r="B443" s="2">
         <v>437</v>
       </c>
@@ -20152,7 +20152,7 @@
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A445" s="150" t="s">
+      <c r="A445" s="154" t="s">
         <v>1058</v>
       </c>
       <c r="B445" s="2">
@@ -20187,7 +20187,7 @@
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A446" s="151"/>
+      <c r="A446" s="155"/>
       <c r="B446" s="2">
         <v>440</v>
       </c>
@@ -20220,7 +20220,7 @@
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A447" s="151"/>
+      <c r="A447" s="155"/>
       <c r="B447" s="2">
         <v>441</v>
       </c>
@@ -20253,7 +20253,7 @@
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A448" s="151"/>
+      <c r="A448" s="155"/>
       <c r="B448" s="2">
         <v>442</v>
       </c>
@@ -20286,7 +20286,7 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A449" s="152"/>
+      <c r="A449" s="156"/>
       <c r="B449" s="2">
         <v>443</v>
       </c>
@@ -20492,7 +20492,7 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A455" s="150" t="s">
+      <c r="A455" s="154" t="s">
         <v>1083</v>
       </c>
       <c r="B455" s="2">
@@ -20527,7 +20527,7 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A456" s="152"/>
+      <c r="A456" s="156"/>
       <c r="B456" s="2">
         <v>450</v>
       </c>
@@ -20591,7 +20591,7 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A458" s="150" t="s">
+      <c r="A458" s="154" t="s">
         <v>1091</v>
       </c>
       <c r="B458" s="2">
@@ -20626,7 +20626,7 @@
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A459" s="151"/>
+      <c r="A459" s="155"/>
       <c r="B459" s="2">
         <v>453</v>
       </c>
@@ -20659,7 +20659,7 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A460" s="152"/>
+      <c r="A460" s="156"/>
       <c r="B460" s="2">
         <v>454</v>
       </c>
@@ -20692,7 +20692,7 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A461" s="150" t="s">
+      <c r="A461" s="154" t="s">
         <v>1098</v>
       </c>
       <c r="B461" s="2">
@@ -20727,7 +20727,7 @@
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A462" s="151"/>
+      <c r="A462" s="155"/>
       <c r="B462" s="2">
         <v>456</v>
       </c>
@@ -20830,7 +20830,7 @@
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A465" s="150" t="s">
+      <c r="A465" s="154" t="s">
         <v>1109</v>
       </c>
       <c r="B465" s="2">
@@ -20865,7 +20865,7 @@
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A466" s="152"/>
+      <c r="A466" s="156"/>
       <c r="B466" s="2">
         <v>460</v>
       </c>
@@ -20999,7 +20999,7 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A470" s="150" t="s">
+      <c r="A470" s="154" t="s">
         <v>1123</v>
       </c>
       <c r="B470" s="2">
@@ -21034,7 +21034,7 @@
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A471" s="152"/>
+      <c r="A471" s="156"/>
       <c r="B471" s="2">
         <v>465</v>
       </c>
@@ -21387,7 +21387,7 @@
       <c r="K481" s="55"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A482" s="150" t="s">
+      <c r="A482" s="154" t="s">
         <v>1155</v>
       </c>
       <c r="B482" s="2">
@@ -21422,7 +21422,7 @@
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A483" s="151"/>
+      <c r="A483" s="155"/>
       <c r="B483" s="2">
         <v>476</v>
       </c>
@@ -21490,7 +21490,7 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A485" s="150" t="s">
+      <c r="A485" s="154" t="s">
         <v>1163</v>
       </c>
       <c r="B485" s="2">
@@ -21525,7 +21525,7 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A486" s="152"/>
+      <c r="A486" s="156"/>
       <c r="B486" s="2">
         <v>479</v>
       </c>
@@ -21587,7 +21587,7 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A488" s="150" t="s">
+      <c r="A488" s="154" t="s">
         <v>1170</v>
       </c>
       <c r="B488" s="2">
@@ -21622,7 +21622,7 @@
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A489" s="151"/>
+      <c r="A489" s="155"/>
       <c r="B489" s="2">
         <v>482</v>
       </c>
@@ -21655,7 +21655,7 @@
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A490" s="151"/>
+      <c r="A490" s="155"/>
       <c r="B490" s="2">
         <v>483</v>
       </c>
@@ -21688,7 +21688,7 @@
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A491" s="152"/>
+      <c r="A491" s="156"/>
       <c r="B491" s="2">
         <v>484</v>
       </c>
@@ -21721,7 +21721,7 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A492" s="150" t="s">
+      <c r="A492" s="154" t="s">
         <v>1179</v>
       </c>
       <c r="B492" s="2">
@@ -21756,7 +21756,7 @@
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A493" s="151"/>
+      <c r="A493" s="155"/>
       <c r="B493" s="2">
         <v>486</v>
       </c>
@@ -21789,7 +21789,7 @@
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A494" s="151"/>
+      <c r="A494" s="155"/>
       <c r="B494" s="2">
         <v>487</v>
       </c>
@@ -21822,7 +21822,7 @@
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A495" s="151"/>
+      <c r="A495" s="155"/>
       <c r="B495" s="2">
         <v>488</v>
       </c>
@@ -21855,7 +21855,7 @@
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A496" s="151"/>
+      <c r="A496" s="155"/>
       <c r="B496" s="2">
         <v>489</v>
       </c>
@@ -21923,7 +21923,7 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A498" s="150" t="s">
+      <c r="A498" s="154" t="s">
         <v>1193</v>
       </c>
       <c r="B498" s="2">
@@ -21958,7 +21958,7 @@
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A499" s="151"/>
+      <c r="A499" s="155"/>
       <c r="B499" s="2">
         <v>492</v>
       </c>
@@ -21991,7 +21991,7 @@
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A500" s="152"/>
+      <c r="A500" s="156"/>
       <c r="B500" s="2">
         <v>493</v>
       </c>
@@ -22024,7 +22024,7 @@
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A501" s="150" t="s">
+      <c r="A501" s="154" t="s">
         <v>1200</v>
       </c>
       <c r="B501" s="2">
@@ -22059,7 +22059,7 @@
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A502" s="152"/>
+      <c r="A502" s="156"/>
       <c r="B502" s="2">
         <v>495</v>
       </c>
@@ -22092,7 +22092,7 @@
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A503" s="150" t="s">
+      <c r="A503" s="154" t="s">
         <v>1205</v>
       </c>
       <c r="B503" s="2">
@@ -22127,7 +22127,7 @@
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A504" s="151"/>
+      <c r="A504" s="155"/>
       <c r="B504" s="2">
         <v>497</v>
       </c>
@@ -22160,7 +22160,7 @@
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A505" s="152"/>
+      <c r="A505" s="156"/>
       <c r="B505" s="2">
         <v>498</v>
       </c>
@@ -22193,7 +22193,7 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A506" s="153" t="s">
+      <c r="A506" s="150" t="s">
         <v>1212</v>
       </c>
       <c r="B506" s="2">
@@ -22228,7 +22228,7 @@
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A507" s="154"/>
+      <c r="A507" s="151"/>
       <c r="B507" s="2">
         <v>500</v>
       </c>
@@ -22261,7 +22261,7 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A508" s="154"/>
+      <c r="A508" s="151"/>
       <c r="B508" s="2">
         <v>501</v>
       </c>
@@ -22290,7 +22290,7 @@
       <c r="K508" s="10"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A509" s="153" t="s">
+      <c r="A509" s="150" t="s">
         <v>1219</v>
       </c>
       <c r="B509" s="2">
@@ -22325,7 +22325,7 @@
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A510" s="155"/>
+      <c r="A510" s="152"/>
       <c r="B510" s="2">
         <v>503</v>
       </c>
@@ -22358,7 +22358,7 @@
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A511" s="153" t="s">
+      <c r="A511" s="150" t="s">
         <v>1224</v>
       </c>
       <c r="B511" s="2">
@@ -22393,7 +22393,7 @@
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A512" s="154"/>
+      <c r="A512" s="151"/>
       <c r="B512" s="2">
         <v>505</v>
       </c>
@@ -22422,7 +22422,7 @@
       <c r="K512" s="9"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A513" s="155"/>
+      <c r="A513" s="152"/>
       <c r="B513" s="2">
         <v>506</v>
       </c>
@@ -22455,7 +22455,7 @@
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A514" s="153" t="s">
+      <c r="A514" s="150" t="s">
         <v>1231</v>
       </c>
       <c r="B514" s="2">
@@ -22490,7 +22490,7 @@
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A515" s="154"/>
+      <c r="A515" s="151"/>
       <c r="B515" s="2">
         <v>508</v>
       </c>
@@ -22523,7 +22523,7 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A516" s="154"/>
+      <c r="A516" s="151"/>
       <c r="B516" s="2">
         <v>509</v>
       </c>
@@ -22556,7 +22556,7 @@
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A517" s="153" t="s">
+      <c r="A517" s="150" t="s">
         <v>1236</v>
       </c>
       <c r="B517" s="2">
@@ -22591,7 +22591,7 @@
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518" s="155"/>
+      <c r="A518" s="152"/>
       <c r="B518" s="2">
         <v>511</v>
       </c>
@@ -22659,7 +22659,7 @@
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A520" s="150" t="s">
+      <c r="A520" s="154" t="s">
         <v>1244</v>
       </c>
       <c r="B520" s="2">
@@ -22694,7 +22694,7 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A521" s="151"/>
+      <c r="A521" s="155"/>
       <c r="B521" s="2">
         <v>514</v>
       </c>
@@ -22723,7 +22723,7 @@
       <c r="K521" s="20"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A522" s="152"/>
+      <c r="A522" s="156"/>
       <c r="B522" s="2">
         <v>515</v>
       </c>
@@ -22787,7 +22787,7 @@
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A524" s="150" t="s">
+      <c r="A524" s="154" t="s">
         <v>1254</v>
       </c>
       <c r="B524" s="2">
@@ -22822,7 +22822,7 @@
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A525" s="152"/>
+      <c r="A525" s="156"/>
       <c r="B525" s="2">
         <v>518</v>
       </c>
@@ -22855,7 +22855,7 @@
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A526" s="154"/>
+      <c r="A526" s="151"/>
       <c r="B526" s="2">
         <v>519</v>
       </c>
@@ -22888,7 +22888,7 @@
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A527" s="155"/>
+      <c r="A527" s="152"/>
       <c r="B527" s="2">
         <v>520</v>
       </c>
@@ -23022,7 +23022,7 @@
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A531" s="150" t="s">
+      <c r="A531" s="154" t="s">
         <v>1270</v>
       </c>
       <c r="B531" s="2">
@@ -23057,7 +23057,7 @@
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A532" s="151"/>
+      <c r="A532" s="155"/>
       <c r="B532" s="2">
         <v>525</v>
       </c>
@@ -23090,7 +23090,7 @@
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A533" s="152"/>
+      <c r="A533" s="156"/>
       <c r="B533" s="2">
         <v>526</v>
       </c>
@@ -23119,7 +23119,7 @@
       <c r="K533" s="20"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A534" s="153" t="s">
+      <c r="A534" s="150" t="s">
         <v>1277</v>
       </c>
       <c r="B534" s="2">
@@ -23154,7 +23154,7 @@
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A535" s="154"/>
+      <c r="A535" s="151"/>
       <c r="B535" s="2">
         <v>528</v>
       </c>
@@ -23187,7 +23187,7 @@
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A536" s="155"/>
+      <c r="A536" s="152"/>
       <c r="B536" s="2">
         <v>529</v>
       </c>
@@ -23290,7 +23290,7 @@
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A539" s="150" t="s">
+      <c r="A539" s="154" t="s">
         <v>1289</v>
       </c>
       <c r="B539" s="2">
@@ -23325,7 +23325,7 @@
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A540" s="151"/>
+      <c r="A540" s="155"/>
       <c r="B540" s="2">
         <v>533</v>
       </c>
@@ -23358,7 +23358,7 @@
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A541" s="152"/>
+      <c r="A541" s="156"/>
       <c r="B541" s="2">
         <v>534</v>
       </c>
@@ -23391,7 +23391,7 @@
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A542" s="150" t="s">
+      <c r="A542" s="154" t="s">
         <v>1296</v>
       </c>
       <c r="B542" s="2">
@@ -23426,7 +23426,7 @@
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A543" s="151"/>
+      <c r="A543" s="155"/>
       <c r="B543" s="2">
         <v>536</v>
       </c>
@@ -23459,7 +23459,7 @@
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A544" s="152"/>
+      <c r="A544" s="156"/>
       <c r="B544" s="2">
         <v>537</v>
       </c>
@@ -23488,7 +23488,7 @@
       <c r="K544" s="20"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A545" s="153" t="s">
+      <c r="A545" s="150" t="s">
         <v>1303</v>
       </c>
       <c r="B545" s="2">
@@ -23523,7 +23523,7 @@
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A546" s="154"/>
+      <c r="A546" s="151"/>
       <c r="B546" s="2">
         <v>539</v>
       </c>
@@ -23556,7 +23556,7 @@
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A547" s="154"/>
+      <c r="A547" s="151"/>
       <c r="B547" s="2">
         <v>540</v>
       </c>
@@ -23589,7 +23589,7 @@
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A548" s="150" t="s">
+      <c r="A548" s="154" t="s">
         <v>1310</v>
       </c>
       <c r="B548" s="2">
@@ -23624,7 +23624,7 @@
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A549" s="151"/>
+      <c r="A549" s="155"/>
       <c r="B549" s="2">
         <v>542</v>
       </c>
@@ -23657,7 +23657,7 @@
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A550" s="151"/>
+      <c r="A550" s="155"/>
       <c r="B550" s="2">
         <v>543</v>
       </c>
@@ -23690,7 +23690,7 @@
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A551" s="153" t="s">
+      <c r="A551" s="150" t="s">
         <v>1317</v>
       </c>
       <c r="B551" s="2">
@@ -23725,7 +23725,7 @@
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A552" s="154"/>
+      <c r="A552" s="151"/>
       <c r="B552" s="2">
         <v>545</v>
       </c>
@@ -23758,7 +23758,7 @@
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A553" s="154"/>
+      <c r="A553" s="151"/>
       <c r="B553" s="2">
         <v>546</v>
       </c>
@@ -23785,7 +23785,7 @@
       <c r="K553" s="9"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A554" s="153" t="s">
+      <c r="A554" s="150" t="s">
         <v>1323</v>
       </c>
       <c r="B554" s="2">
@@ -23816,7 +23816,7 @@
       <c r="K554" s="9"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A555" s="154"/>
+      <c r="A555" s="151"/>
       <c r="B555" s="2">
         <v>548</v>
       </c>
@@ -23849,7 +23849,7 @@
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A556" s="155"/>
+      <c r="A556" s="152"/>
       <c r="B556" s="2">
         <v>549</v>
       </c>
@@ -23917,7 +23917,7 @@
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A558" s="153" t="s">
+      <c r="A558" s="150" t="s">
         <v>1333</v>
       </c>
       <c r="B558" s="2">
@@ -23952,7 +23952,7 @@
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A559" s="154"/>
+      <c r="A559" s="151"/>
       <c r="B559" s="2">
         <v>552</v>
       </c>
@@ -23985,7 +23985,7 @@
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A560" s="155"/>
+      <c r="A560" s="152"/>
       <c r="B560" s="2">
         <v>553</v>
       </c>
@@ -24115,7 +24115,7 @@
       <c r="K563" s="9"/>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A564" s="153" t="s">
+      <c r="A564" s="150" t="s">
         <v>1349</v>
       </c>
       <c r="B564" s="2">
@@ -24146,7 +24146,7 @@
       <c r="K564" s="9"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A565" s="155"/>
+      <c r="A565" s="152"/>
       <c r="B565" s="2">
         <v>558</v>
       </c>
@@ -24204,7 +24204,7 @@
       <c r="K566" s="62"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A567" s="153" t="s">
+      <c r="A567" s="150" t="s">
         <v>1357</v>
       </c>
       <c r="B567" s="2">
@@ -24233,7 +24233,7 @@
       <c r="K567" s="60"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A568" s="155"/>
+      <c r="A568" s="152"/>
       <c r="B568" s="2">
         <v>561</v>
       </c>
@@ -24260,7 +24260,7 @@
       <c r="K568" s="60"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A569" s="153" t="s">
+      <c r="A569" s="150" t="s">
         <v>1360</v>
       </c>
       <c r="B569" s="2">
@@ -24289,7 +24289,7 @@
       <c r="K569" s="60"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A570" s="154"/>
+      <c r="A570" s="151"/>
       <c r="B570" s="2">
         <v>563</v>
       </c>
@@ -24316,7 +24316,7 @@
       <c r="K570" s="60"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A571" s="155"/>
+      <c r="A571" s="152"/>
       <c r="B571" s="2">
         <v>564</v>
       </c>
@@ -24343,7 +24343,7 @@
       <c r="K571" s="60"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A572" s="160" t="s">
+      <c r="A572" s="153" t="s">
         <v>1364</v>
       </c>
       <c r="B572" s="2">
@@ -24372,7 +24372,7 @@
       <c r="K572" s="62"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A573" s="160"/>
+      <c r="A573" s="153"/>
       <c r="B573" s="2">
         <v>566</v>
       </c>
@@ -24399,7 +24399,7 @@
       <c r="K573" s="62"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A574" s="160"/>
+      <c r="A574" s="153"/>
       <c r="B574" s="2">
         <v>567</v>
       </c>
@@ -24426,7 +24426,7 @@
       <c r="K574" s="62"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A575" s="160"/>
+      <c r="A575" s="153"/>
       <c r="B575" s="2">
         <v>568</v>
       </c>
@@ -24453,7 +24453,7 @@
       <c r="K575" s="62"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A576" s="160"/>
+      <c r="A576" s="153"/>
       <c r="B576" s="2">
         <v>569</v>
       </c>
@@ -24480,7 +24480,7 @@
       <c r="K576" s="62"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A577" s="160" t="s">
+      <c r="A577" s="153" t="s">
         <v>1368</v>
       </c>
       <c r="B577" s="2">
@@ -24509,7 +24509,7 @@
       <c r="K577" s="62"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A578" s="160"/>
+      <c r="A578" s="153"/>
       <c r="B578" s="2">
         <v>571</v>
       </c>
@@ -24536,7 +24536,7 @@
       <c r="K578" s="62"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A579" s="160"/>
+      <c r="A579" s="153"/>
       <c r="B579" s="2">
         <v>572</v>
       </c>
@@ -24563,7 +24563,7 @@
       <c r="K579" s="62"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A580" s="160"/>
+      <c r="A580" s="153"/>
       <c r="B580" s="2">
         <v>573</v>
       </c>
@@ -24799,8 +24799,145 @@
       <c r="K587" s="60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K583" xr:uid="{C0DEBAF1-F00C-4603-BDFA-20B200DCCC37}"/>
   <mergeCells count="150">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="A240:A243"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="A307:A309"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A277:A279"/>
+    <mergeCell ref="A280:A283"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A336:A339"/>
+    <mergeCell ref="A340:A342"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="A345:A347"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="A315:A318"/>
+    <mergeCell ref="A319:A321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A333:A334"/>
+    <mergeCell ref="A381:A384"/>
+    <mergeCell ref="A389:A391"/>
+    <mergeCell ref="A392:A394"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="A398:A400"/>
+    <mergeCell ref="A401:A403"/>
+    <mergeCell ref="A354:A356"/>
+    <mergeCell ref="A359:A361"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="A368:A370"/>
+    <mergeCell ref="A371:A373"/>
+    <mergeCell ref="A374:A375"/>
+    <mergeCell ref="A425:A426"/>
+    <mergeCell ref="A427:A429"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="A432:A434"/>
+    <mergeCell ref="A435:A437"/>
+    <mergeCell ref="A438:A440"/>
+    <mergeCell ref="A404:A407"/>
+    <mergeCell ref="A408:A410"/>
+    <mergeCell ref="A411:A412"/>
+    <mergeCell ref="A413:A416"/>
+    <mergeCell ref="A420:A422"/>
+    <mergeCell ref="A423:A424"/>
+    <mergeCell ref="A470:A471"/>
+    <mergeCell ref="A482:A483"/>
+    <mergeCell ref="A485:A486"/>
+    <mergeCell ref="A488:A491"/>
+    <mergeCell ref="A492:A496"/>
+    <mergeCell ref="A498:A500"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="A445:A449"/>
+    <mergeCell ref="A455:A456"/>
+    <mergeCell ref="A458:A460"/>
+    <mergeCell ref="A461:A462"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="A520:A522"/>
+    <mergeCell ref="A524:A525"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="A531:A533"/>
+    <mergeCell ref="A534:A536"/>
+    <mergeCell ref="A501:A502"/>
+    <mergeCell ref="A503:A505"/>
+    <mergeCell ref="A506:A508"/>
+    <mergeCell ref="A509:A510"/>
+    <mergeCell ref="A511:A513"/>
+    <mergeCell ref="A514:A516"/>
     <mergeCell ref="A558:A560"/>
     <mergeCell ref="A564:A565"/>
     <mergeCell ref="A567:A568"/>
@@ -24813,144 +24950,6 @@
     <mergeCell ref="A548:A550"/>
     <mergeCell ref="A551:A553"/>
     <mergeCell ref="A554:A556"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="A520:A522"/>
-    <mergeCell ref="A524:A525"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="A531:A533"/>
-    <mergeCell ref="A534:A536"/>
-    <mergeCell ref="A501:A502"/>
-    <mergeCell ref="A503:A505"/>
-    <mergeCell ref="A506:A508"/>
-    <mergeCell ref="A509:A510"/>
-    <mergeCell ref="A511:A513"/>
-    <mergeCell ref="A514:A516"/>
-    <mergeCell ref="A470:A471"/>
-    <mergeCell ref="A482:A483"/>
-    <mergeCell ref="A485:A486"/>
-    <mergeCell ref="A488:A491"/>
-    <mergeCell ref="A492:A496"/>
-    <mergeCell ref="A498:A500"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="A445:A449"/>
-    <mergeCell ref="A455:A456"/>
-    <mergeCell ref="A458:A460"/>
-    <mergeCell ref="A461:A462"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="A425:A426"/>
-    <mergeCell ref="A427:A429"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="A432:A434"/>
-    <mergeCell ref="A435:A437"/>
-    <mergeCell ref="A438:A440"/>
-    <mergeCell ref="A404:A407"/>
-    <mergeCell ref="A408:A410"/>
-    <mergeCell ref="A411:A412"/>
-    <mergeCell ref="A413:A416"/>
-    <mergeCell ref="A420:A422"/>
-    <mergeCell ref="A423:A424"/>
-    <mergeCell ref="A381:A384"/>
-    <mergeCell ref="A389:A391"/>
-    <mergeCell ref="A392:A394"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="A398:A400"/>
-    <mergeCell ref="A401:A403"/>
-    <mergeCell ref="A354:A356"/>
-    <mergeCell ref="A359:A361"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="A368:A370"/>
-    <mergeCell ref="A371:A373"/>
-    <mergeCell ref="A374:A375"/>
-    <mergeCell ref="A336:A339"/>
-    <mergeCell ref="A340:A342"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="A345:A347"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="A351:A352"/>
-    <mergeCell ref="A315:A318"/>
-    <mergeCell ref="A319:A321"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="A333:A334"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="A307:A309"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A277:A279"/>
-    <mergeCell ref="A280:A283"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="A232:A235"/>
-    <mergeCell ref="A240:A243"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
